--- a/biology/Botanique/Ligule_(graminoïdes)/Ligule_(graminoïdes).xlsx
+++ b/biology/Botanique/Ligule_(graminoïdes)/Ligule_(graminoïdes).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligule_(gramino%C3%AFdes)</t>
+          <t>Ligule_(graminoïdes)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ligule, en botanique, chez les Poaceae (graminées), Cyperaceae et  Juncaceae, est une pièce foliaire correspondant à une languette membraneuse, parfois remplacée par une rangée de poils, voire absente, située à la jonction de la gaine et du limbe des feuilles, dans le prolongement de la gaine.
 Il existe une seconde acception du mot ligule : élément de la corolle (constituée par 5 pétales soudés) en forme de languette, développé unilatéralement vers la périphérie du capitule. Chez les Astéracées, toutes les fleurs du capitule des Liguliflores (ex: pissenlit) sont ligulées, seules les fleurs périphériques des Radiées comme les pâquerette le sont.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligule_(gramino%C3%AFdes)</t>
+          <t>Ligule_(graminoïdes)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme « ligule », attesté en français depuis 1582, est emprunté au latin : ligula, diminutif de lingua, langue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « ligule », attesté en français depuis 1582, est emprunté au latin : ligula, diminutif de lingua, langue.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligule_(gramino%C3%AFdes)</t>
+          <t>Ligule_(graminoïdes)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ligule est généralement adaxiale (ou interne), mais on peut voir, plus rarement, des ligules abaxiales (externes), en particulier chez certaines Bambusoideae[2],[3],[4].
-La ligule peut présenter des formes variables selon les genres et espèces. On peut ainsi observer des ligules courtes ou longues, aiguës, obtuses ou tronquées, entières, échancrées, bifides, dentées ou ciliées[5].
-Chez certaines espèces de Poaceae et Cyperaceae, il peut exister une languette membraneuse, également située à la jonction de la gaine et du limbe, mais dans le prolongement de ce dernier, appelée « antiligule »[6]. Certains auteurs l'appellent aussi contraligule, fausse ligule ou pseudo-ligule[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ligule est généralement adaxiale (ou interne), mais on peut voir, plus rarement, des ligules abaxiales (externes), en particulier chez certaines Bambusoideae.
+La ligule peut présenter des formes variables selon les genres et espèces. On peut ainsi observer des ligules courtes ou longues, aiguës, obtuses ou tronquées, entières, échancrées, bifides, dentées ou ciliées.
+Chez certaines espèces de Poaceae et Cyperaceae, il peut exister une languette membraneuse, également située à la jonction de la gaine et du limbe, mais dans le prolongement de ce dernier, appelée « antiligule ». Certains auteurs l'appellent aussi contraligule, fausse ligule ou pseudo-ligule.
 </t>
         </is>
       </c>
